--- a/examples/wangetal2018/out/NetworkFiles/PL_1.0_b_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/PL_1.0_b_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>pipe_name</t>
   </si>
@@ -60,16 +60,16 @@
     <t>PI03</t>
   </si>
   <si>
-    <t>PI04_pre_loop_cxn</t>
+    <t>PI04</t>
+  </si>
+  <si>
+    <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_1_loop</t>
   </si>
   <si>
-    <t>PI04_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI05</t>
+    <t>PI05_post_loop_cxn</t>
   </si>
   <si>
     <t>PI06_pre_loop_cxn</t>
@@ -105,12 +105,12 @@
     <t>N04</t>
   </si>
   <si>
+    <t>N05</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
-    <t>N05</t>
-  </si>
-  <si>
     <t>N06_C</t>
   </si>
   <si>
@@ -141,15 +141,15 @@
     <t>X60</t>
   </si>
   <si>
+    <t>X42</t>
+  </si>
+  <si>
     <t>node_name</t>
   </si>
   <si>
     <t>p_max_mpa_g</t>
   </si>
   <si>
-    <t>Supply compressor from_node</t>
-  </si>
-  <si>
     <t>compressor_name</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>eta_driver</t>
-  </si>
-  <si>
-    <t>Supply compressor</t>
   </si>
   <si>
     <t>CS1</t>
@@ -611,7 +608,7 @@
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>10.25771426728234</v>
+        <v>34.13744309285616</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -634,19 +631,19 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>641.35</v>
+        <v>679.45</v>
       </c>
       <c r="E3">
-        <v>10.25771426728234</v>
+        <v>34.13744309285616</v>
       </c>
       <c r="F3">
         <v>0.012</v>
       </c>
       <c r="G3">
-        <v>9.525</v>
+        <v>15.875</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -663,7 +660,7 @@
         <v>641.35</v>
       </c>
       <c r="E4">
-        <v>29.74228573271766</v>
+        <v>5.862556907143841</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -741,7 +738,7 @@
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>25.26540429734857</v>
+        <v>48.5</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -758,16 +755,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>56.76540429734857</v>
+        <v>15.13638545890598</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -784,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -793,7 +790,7 @@
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>23.23459570265143</v>
+        <v>95.13638545890598</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -819,7 +816,7 @@
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>34.86361454109402</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -845,7 +842,7 @@
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>9.275389310171501</v>
+        <v>9.260484514850218</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -871,7 +868,7 @@
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>9.275389310171501</v>
+        <v>9.260484514850218</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -897,7 +894,7 @@
         <v>641.35</v>
       </c>
       <c r="E13">
-        <v>40.72461068982849</v>
+        <v>40.73951548514978</v>
       </c>
       <c r="F13">
         <v>0.012</v>
@@ -994,7 +991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1002,15 +999,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>8.758481331682836</v>
@@ -1018,7 +1015,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>8.758481331682836</v>
@@ -1026,7 +1023,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>8.758481331682836</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>8.758481331682836</v>
@@ -1042,7 +1039,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>8.758481331682836</v>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>8.758481331682836</v>
@@ -1058,7 +1055,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>8.758481331682836</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>8.758481331682836</v>
@@ -1074,7 +1071,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>8.758481331682836</v>
@@ -1082,7 +1079,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>8.758481331682836</v>
@@ -1090,7 +1087,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>8.758481331682836</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>8.758481331682836</v>
@@ -1106,7 +1103,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>8.758481331682836</v>
@@ -1114,7 +1111,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>8.758481331682836</v>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>8.758481331682836</v>
@@ -1130,17 +1127,9 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>8.758481331682836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
         <v>8.758481331682836</v>
       </c>
     </row>
@@ -1151,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1188,16 +1177,16 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>8.758481331682836</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1214,10 +1203,10 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>8.758481331682836</v>
@@ -1240,10 +1229,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>8.758481331682836</v>
@@ -1258,32 +1247,6 @@
         <v>0.78</v>
       </c>
       <c r="H4">
-        <v>0.357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>8.758481331682836</v>
-      </c>
-      <c r="E5">
-        <v>12.5</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.78</v>
-      </c>
-      <c r="H5">
         <v>0.357</v>
       </c>
     </row>
@@ -1302,24 +1265,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>8.699999999999999</v>
@@ -1340,13 +1303,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1373,7 +1336,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -1397,15 +1360,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1413,7 +1376,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/examples/wangetal2018/out/NetworkFiles/PL_1.0_b_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/PL_1.0_b_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="94">
   <si>
     <t>pipe_name</t>
   </si>
@@ -45,6 +45,12 @@
     <t>steel_grade</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01_pre_loop_cxn</t>
   </si>
   <si>
@@ -54,76 +60,166 @@
     <t>PI01_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
-    <t>PI05_pre_loop_cxn</t>
+    <t>PI05_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_1_loop</t>
   </si>
   <si>
-    <t>PI05_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI06_pre_loop_cxn</t>
+    <t>PI05_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_2_loop</t>
   </si>
   <si>
-    <t>PI06_post_loop_cxn</t>
+    <t>PI06_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
   </si>
   <si>
     <t>PI07</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
     <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
   </si>
   <si>
     <t>N03</t>
@@ -562,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,16 +695,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>34.13744309285616</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -617,7 +713,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -625,25 +721,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>679.45</v>
+        <v>641.35</v>
       </c>
       <c r="E3">
-        <v>34.13744309285616</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F3">
         <v>0.012</v>
       </c>
       <c r="G3">
-        <v>15.875</v>
+        <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -651,16 +747,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>641.35</v>
       </c>
       <c r="E4">
-        <v>5.862556907143841</v>
+        <v>8.153927062259779</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -669,7 +765,7 @@
         <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -677,25 +773,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>641.35</v>
+        <v>679.45</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>34.82059372892645</v>
       </c>
       <c r="F5">
         <v>0.012</v>
       </c>
       <c r="G5">
-        <v>9.525</v>
+        <v>15.875</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -703,16 +799,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>31.5</v>
+        <v>5.179406271073555</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -721,7 +817,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -729,16 +825,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>48.5</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -747,7 +843,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -755,16 +851,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>15.13638545890598</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -773,7 +869,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -781,16 +877,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>95.13638545890598</v>
+        <v>15.75</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -799,7 +895,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -807,16 +903,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>34.86361454109402</v>
+        <v>15.75</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -825,7 +921,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -833,16 +929,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>9.260484514850218</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -851,7 +947,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -859,16 +955,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>9.260484514850218</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -877,7 +973,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -885,16 +981,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>641.35</v>
       </c>
       <c r="E13">
-        <v>40.73951548514978</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F13">
         <v>0.012</v>
@@ -903,7 +999,7 @@
         <v>9.525</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -911,16 +1007,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>641.35</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>16.17510249898881</v>
       </c>
       <c r="F14">
         <v>0.012</v>
@@ -929,7 +1025,7 @@
         <v>9.525</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -937,16 +1033,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>641.35</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>96.17510249898882</v>
       </c>
       <c r="F15">
         <v>0.012</v>
@@ -955,7 +1051,7 @@
         <v>9.525</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -963,25 +1059,441 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>641.35</v>
+      </c>
+      <c r="E16">
+        <v>0.4915641676778613</v>
+      </c>
+      <c r="F16">
+        <v>0.012</v>
+      </c>
+      <c r="G16">
+        <v>9.525</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>641.35</v>
+      </c>
+      <c r="E17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F17">
+        <v>0.012</v>
+      </c>
+      <c r="G17">
+        <v>9.525</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>641.35</v>
+      </c>
+      <c r="E18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F18">
+        <v>0.012</v>
+      </c>
+      <c r="G18">
+        <v>9.525</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>641.35</v>
+      </c>
+      <c r="E19">
+        <v>10.76895296156478</v>
+      </c>
+      <c r="F19">
+        <v>0.012</v>
+      </c>
+      <c r="G19">
+        <v>9.525</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>641.35</v>
+      </c>
+      <c r="E20">
+        <v>10.76895296156478</v>
+      </c>
+      <c r="F20">
+        <v>0.012</v>
+      </c>
+      <c r="G20">
+        <v>9.525</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>641.35</v>
+      </c>
+      <c r="E21">
+        <v>5.897713705101884</v>
+      </c>
+      <c r="F21">
+        <v>0.012</v>
+      </c>
+      <c r="G21">
+        <v>9.525</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>641.35</v>
+      </c>
+      <c r="E22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F22">
+        <v>0.012</v>
+      </c>
+      <c r="G22">
+        <v>9.525</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>641.35</v>
+      </c>
+      <c r="E23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F23">
+        <v>0.012</v>
+      </c>
+      <c r="G23">
+        <v>9.525</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>641.35</v>
+      </c>
+      <c r="E24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F24">
+        <v>0.012</v>
+      </c>
+      <c r="G24">
+        <v>9.525</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>641.35</v>
+      </c>
+      <c r="E25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F25">
+        <v>0.012</v>
+      </c>
+      <c r="G25">
+        <v>9.525</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>641.35</v>
+      </c>
+      <c r="E26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F26">
+        <v>0.012</v>
+      </c>
+      <c r="G26">
+        <v>9.525</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>641.35</v>
+      </c>
+      <c r="E27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F27">
+        <v>0.012</v>
+      </c>
+      <c r="G27">
+        <v>9.525</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>641.35</v>
+      </c>
+      <c r="E28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F28">
+        <v>0.012</v>
+      </c>
+      <c r="G28">
+        <v>9.525</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>641.35</v>
+      </c>
+      <c r="E29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F29">
+        <v>0.012</v>
+      </c>
+      <c r="G29">
+        <v>9.525</v>
+      </c>
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>641.35</v>
+      </c>
+      <c r="E30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F30">
+        <v>0.012</v>
+      </c>
+      <c r="G30">
+        <v>9.525</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>641.35</v>
+      </c>
+      <c r="E31">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F31">
+        <v>0.012</v>
+      </c>
+      <c r="G31">
+        <v>9.525</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="D16">
-        <v>641.35</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>0.012</v>
-      </c>
-      <c r="G16">
-        <v>9.525</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>641.35</v>
+      </c>
+      <c r="E32">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F32">
+        <v>0.012</v>
+      </c>
+      <c r="G32">
+        <v>9.525</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -999,15 +1511,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>8.758481331682836</v>
@@ -1015,7 +1527,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>8.758481331682836</v>
@@ -1023,7 +1535,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>8.758481331682836</v>
@@ -1031,7 +1543,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>8.758481331682836</v>
@@ -1039,7 +1551,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>8.758481331682836</v>
@@ -1047,7 +1559,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>8.758481331682836</v>
@@ -1055,7 +1567,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>8.758481331682836</v>
@@ -1063,7 +1575,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>8.758481331682836</v>
@@ -1071,7 +1583,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>8.758481331682836</v>
@@ -1079,7 +1591,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>8.758481331682836</v>
@@ -1087,7 +1599,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>8.758481331682836</v>
@@ -1095,7 +1607,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>8.758481331682836</v>
@@ -1103,7 +1615,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>8.758481331682836</v>
@@ -1111,7 +1623,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>8.758481331682836</v>
@@ -1119,7 +1631,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>8.758481331682836</v>
@@ -1127,9 +1639,137 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B17">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
         <v>8.758481331682836</v>
       </c>
     </row>
@@ -1148,7 +1788,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1157,30 +1797,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>8.758481331682836</v>
@@ -1200,13 +1840,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>8.758481331682836</v>
@@ -1226,13 +1866,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>8.758481331682836</v>
@@ -1265,24 +1905,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>8.699999999999999</v>
@@ -1303,21 +1943,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1325,10 +1965,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1336,10 +1976,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1360,15 +2000,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1376,7 +2016,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>1</v>
